--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt1-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt1-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Wnt1</t>
+  </si>
+  <si>
+    <t>Fzd4</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Wnt1</t>
-  </si>
-  <si>
-    <t>Fzd4</t>
-  </si>
-  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09370100000000002</v>
+        <v>0.03910466666666667</v>
       </c>
       <c r="H2">
-        <v>0.281103</v>
+        <v>0.117314</v>
       </c>
       <c r="I2">
-        <v>0.7055497129891547</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7055497129891546</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.25040933333333</v>
+        <v>26.60444266666667</v>
       </c>
       <c r="N2">
-        <v>81.751228</v>
+        <v>79.813328</v>
       </c>
       <c r="O2">
-        <v>0.455635031912059</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="P2">
-        <v>0.4556350319120589</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="Q2">
-        <v>2.553390604942667</v>
+        <v>1.040357862332445</v>
       </c>
       <c r="R2">
-        <v>22.980515444484</v>
+        <v>9.363220760992</v>
       </c>
       <c r="S2">
-        <v>0.3214731659933575</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="T2">
-        <v>0.3214731659933575</v>
+        <v>0.5736225649467147</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09370100000000002</v>
+        <v>0.03910466666666667</v>
       </c>
       <c r="H3">
-        <v>0.281103</v>
+        <v>0.117314</v>
       </c>
       <c r="I3">
-        <v>0.7055497129891547</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.7055497129891546</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>42.094435</v>
       </c>
       <c r="O3">
-        <v>0.2346105337346748</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="P3">
-        <v>0.2346105337346747</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="Q3">
-        <v>1.314763551311667</v>
+        <v>0.5486962830655556</v>
       </c>
       <c r="R3">
-        <v>11.832871961805</v>
+        <v>4.93826654759</v>
       </c>
       <c r="S3">
-        <v>0.1655293947407322</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="T3">
-        <v>0.1655293947407321</v>
+        <v>0.3025349071358453</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -664,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09370100000000002</v>
+        <v>0.03910466666666667</v>
       </c>
       <c r="H4">
-        <v>0.281103</v>
+        <v>0.117314</v>
       </c>
       <c r="I4">
-        <v>0.7055497129891547</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.7055497129891546</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3744183333333333</v>
+        <v>0.2022123333333333</v>
       </c>
       <c r="N4">
-        <v>1.123255</v>
+        <v>0.606637</v>
       </c>
       <c r="O4">
-        <v>0.00626038703382388</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="P4">
-        <v>0.00626038703382388</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="Q4">
-        <v>0.03508337225166667</v>
+        <v>0.007907445890888889</v>
       </c>
       <c r="R4">
-        <v>0.315750350265</v>
+        <v>0.07116701301800001</v>
       </c>
       <c r="S4">
-        <v>0.004417014274915464</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="T4">
-        <v>0.004417014274915463</v>
+        <v>0.004359931864156574</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -726,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.09370100000000002</v>
+        <v>0.03910466666666667</v>
       </c>
       <c r="H5">
-        <v>0.281103</v>
+        <v>0.117314</v>
       </c>
       <c r="I5">
-        <v>0.7055497129891547</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.7055497129891546</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,400 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.009092</v>
+        <v>5.541567000000001</v>
       </c>
       <c r="N5">
-        <v>54.027276</v>
+        <v>16.624701</v>
       </c>
       <c r="O5">
-        <v>0.3011174293844444</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="P5">
-        <v>0.3011174293844444</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="Q5">
-        <v>1.687469929492</v>
+        <v>0.216701130346</v>
       </c>
       <c r="R5">
-        <v>15.187229365428</v>
+        <v>1.950310173114</v>
       </c>
       <c r="S5">
-        <v>0.2124533158782268</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="T5">
-        <v>0.2124533158782268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.09370100000000002</v>
-      </c>
-      <c r="H6">
-        <v>0.281103</v>
-      </c>
-      <c r="I6">
-        <v>0.7055497129891547</v>
-      </c>
-      <c r="J6">
-        <v>0.7055497129891546</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.1421396666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.4264189999999999</v>
-      </c>
-      <c r="O6">
-        <v>0.00237661793499797</v>
-      </c>
-      <c r="P6">
-        <v>0.00237661793499797</v>
-      </c>
-      <c r="Q6">
-        <v>0.01331862890633333</v>
-      </c>
-      <c r="R6">
-        <v>0.119867660157</v>
-      </c>
-      <c r="S6">
-        <v>0.001676822101922695</v>
-      </c>
-      <c r="T6">
-        <v>0.001676822101922695</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.03910466666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.117314</v>
-      </c>
-      <c r="I7">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="J7">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>27.25040933333333</v>
-      </c>
-      <c r="N7">
-        <v>81.751228</v>
-      </c>
-      <c r="O7">
-        <v>0.455635031912059</v>
-      </c>
-      <c r="P7">
-        <v>0.4556350319120589</v>
-      </c>
-      <c r="Q7">
-        <v>1.065618173510222</v>
-      </c>
-      <c r="R7">
-        <v>9.590563561592001</v>
-      </c>
-      <c r="S7">
-        <v>0.1341618659187015</v>
-      </c>
-      <c r="T7">
-        <v>0.1341618659187014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.03910466666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.117314</v>
-      </c>
-      <c r="I8">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="J8">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>14.03147833333333</v>
-      </c>
-      <c r="N8">
-        <v>42.094435</v>
-      </c>
-      <c r="O8">
-        <v>0.2346105337346748</v>
-      </c>
-      <c r="P8">
-        <v>0.2346105337346747</v>
-      </c>
-      <c r="Q8">
-        <v>0.5486962830655555</v>
-      </c>
-      <c r="R8">
-        <v>4.93826654759</v>
-      </c>
-      <c r="S8">
-        <v>0.06908113899394262</v>
-      </c>
-      <c r="T8">
-        <v>0.06908113899394261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.03910466666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.117314</v>
-      </c>
-      <c r="I9">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="J9">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.3744183333333333</v>
-      </c>
-      <c r="N9">
-        <v>1.123255</v>
-      </c>
-      <c r="O9">
-        <v>0.00626038703382388</v>
-      </c>
-      <c r="P9">
-        <v>0.00626038703382388</v>
-      </c>
-      <c r="Q9">
-        <v>0.01464150411888889</v>
-      </c>
-      <c r="R9">
-        <v>0.13177353707</v>
-      </c>
-      <c r="S9">
-        <v>0.001843372758908417</v>
-      </c>
-      <c r="T9">
-        <v>0.001843372758908417</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.03910466666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.117314</v>
-      </c>
-      <c r="I10">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="J10">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>18.009092</v>
-      </c>
-      <c r="N10">
-        <v>54.027276</v>
-      </c>
-      <c r="O10">
-        <v>0.3011174293844444</v>
-      </c>
-      <c r="P10">
-        <v>0.3011174293844444</v>
-      </c>
-      <c r="Q10">
-        <v>0.7042395396293334</v>
-      </c>
-      <c r="R10">
-        <v>6.338155856664001</v>
-      </c>
-      <c r="S10">
-        <v>0.08866411350621764</v>
-      </c>
-      <c r="T10">
-        <v>0.08866411350621764</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.03910466666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.117314</v>
-      </c>
-      <c r="I11">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="J11">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.1421396666666666</v>
-      </c>
-      <c r="N11">
-        <v>0.4264189999999999</v>
-      </c>
-      <c r="O11">
-        <v>0.00237661793499797</v>
-      </c>
-      <c r="P11">
-        <v>0.00237661793499797</v>
-      </c>
-      <c r="Q11">
-        <v>0.00555832428511111</v>
-      </c>
-      <c r="R11">
-        <v>0.050024918566</v>
-      </c>
-      <c r="S11">
-        <v>0.0006997958330752751</v>
-      </c>
-      <c r="T11">
-        <v>0.0006997958330752749</v>
+        <v>0.1194825960532834</v>
       </c>
     </row>
   </sheetData>
